--- a/biology/Histoire de la zoologie et de la botanique/François_Péron/François_Péron.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/François_Péron/François_Péron.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_P%C3%A9ron</t>
+          <t>François_Péron</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">François Auguste Péron est un naturaliste et un explorateur français, né le 22 août 1775 à Cérilly et mort le 14 décembre 1810 dans cette même ville. Scientifique de l'expédition Baudin, il est passé à la postérité pour ses recherches zoologiques à travers le Pacifique.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_P%C3%A9ron</t>
+          <t>François_Péron</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,17 +523,19 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'engage dans les armées de la République en 1792 et est blessé à Kaiserslautern. Prisonnier à Magdebourg, il se met à étudier l'histoire naturelle.
 En 1794, il est réformé à cause de sa blessure (il a perdu l'œil droit). Il commence à étudier la médecine à Paris grâce à une bourse quand un violent chagrin le décide à quitter la France.
 Jussieu lui obtient une place de zoologiste dans l'expédition vers les Terres Australes menée par le capitaine Nicolas Baudin (1754-1803) jusqu'en Nouvelle-Hollande à bord des vaisseaux Le Géographe et Le Naturaliste.
-Durant ce voyage, il devient l'ami de Jean-Baptiste Bory de Saint-Vincent, qui le présente comme étant doté d'un cœur incomparable dans son Voyage dans les quatre principales îles des mers d'Afrique[1]. Avec Charles-Alexandre Lesueur (1778-1846), également membre de l'expédition, il constitue une immense collection de plus de 100 000 spécimens dont 2 500 d'espèces nouvelles.
+Durant ce voyage, il devient l'ami de Jean-Baptiste Bory de Saint-Vincent, qui le présente comme étant doté d'un cœur incomparable dans son Voyage dans les quatre principales îles des mers d'Afrique. Avec Charles-Alexandre Lesueur (1778-1846), également membre de l'expédition, il constitue une immense collection de plus de 100 000 spécimens dont 2 500 d'espèces nouvelles.
 Le 14 octobre 1805, il est élu membre correspondant de l'Institut, classe d'anatomie et zoologie.
 Il est l'auteur d’Observations sur l'anthropologie (1800), et de certaines parties du Voyage de découvertes aux Terres Australes, pendant les années 1800, 1801, 1802, 1803 et 1804.
-Dans son examen post mortem de la Vénus hottentote Saartjie Baartman, Georges Cuvier est amené à démentir la théorie de François Péron, qui était le seul à avoir pu voir les organes génitaux de Saartjie Baartman de son vivant, et qui y avait vu un "organe particulier", spécifique à sa race. Cuvier qualifie à cette occasion son collègue Péron de « naturaliste infatigable »[2].
+Dans son examen post mortem de la Vénus hottentote Saartjie Baartman, Georges Cuvier est amené à démentir la théorie de François Péron, qui était le seul à avoir pu voir les organes génitaux de Saartjie Baartman de son vivant, et qui y avait vu un "organe particulier", spécifique à sa race. Cuvier qualifie à cette occasion son collègue Péron de « naturaliste infatigable ».
 Le Francois Peron National Park, situé à Shark Bay sur la côte Ouest de l'Australie, lui doit son nom.
-Il meurt de la tuberculose. Il repose au cimetière de Cérilly jusqu'en 1842 ; cette année-là, ses restes sont transférés sous un monument qui lui a été élevé sur la place qui porte son nom, au cœur de la ville[3].
+Il meurt de la tuberculose. Il repose au cimetière de Cérilly jusqu'en 1842 ; cette année-là, ses restes sont transférés sous un monument qui lui a été élevé sur la place qui porte son nom, au cœur de la ville.
 </t>
         </is>
       </c>
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_P%C3%A9ron</t>
+          <t>François_Péron</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,7 +564,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Voyage de découvertes aux Terres Australes, exécuté par ordre de sa Majesté, l’Empereur et Roi, sur les corvettes le Géographe, le Naturaliste et la goëlette le Casuarina, pendant les années 1800, 1801, 1802, 1803 et 1804, Imprimerie Impériale, 3 vols et atlas, Paris, 1807–17 ; vol. I, Historique, 1807 ; vol. II, Historique [complété par L. de Freycinet], 1816 ; vol. III, Navigation et géographie [par L. de Freycinet], 1815 ; Atlas historique [par C. A. Leseur &amp; N. Petit], 1817.
 A Voyage of Discovery to the Southern Hemisphere Performed by Order of the Emperor Napoleon, During the Years 1801, 1802, 1803, and 1804, printed for Richard Phillips, Bridge Street, Blackfriars, by B. McMillan, Bow Street, Covent Garden, Londres, 1809.
@@ -574,7 +590,7 @@
 Notice sur l’habitation des animaux marins, Annales du Muséum national d’histoire naturelle, tome 15, 1810, p. 287–292.
 Notice sur l’habitation des phoques, Annales du Muséum national d’histoire naturelle, tome 15, 1810, p. 293–300.
 Sur les Méduses du genre Equorée, Annales du Muséum national d’Histoire naturelle, tome 15, 1810, p. 41–56.
-Tableau des caractères génériques et spécifiques de toutes les espèces de Méduses connues jusqu’à ce jour, Annales du Muséum national d’histoire naturelle, tome 14, 1809 [1810], p. 325–366.</t>
+Tableau des caractères génériques et spécifiques de toutes les espèces de Méduses connues jusqu’à ce jour, Annales du Muséum national d’histoire naturelle, tome 14, 1809 , p. 325–366.</t>
         </is>
       </c>
     </row>
